--- a/_dataSources/reported_covid_deaths.xlsx
+++ b/_dataSources/reported_covid_deaths.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomo/Documents/GitHub/excess-mortality-world/_dataSources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1544278F-7B46-2A4A-9C73-9A426BD99FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6553D105-1401-E24F-93D9-E515628F66AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{6E973D83-1C3E-5841-AD62-68926B66D9EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Country</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3271C82F-A8A0-FB41-B5AB-8B4EF96B36CF}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,29 +891,43 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1">
-        <v>93317</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1">
-        <v>83496</v>
+        <v>843</v>
       </c>
       <c r="D29" s="1">
-        <v>176813</v>
+        <v>850</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>93317</v>
+      </c>
+      <c r="C30" s="1">
+        <v>83496</v>
+      </c>
+      <c r="D30" s="1">
+        <v>176813</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
         <v>352004</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>467051</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>819055</v>
       </c>
     </row>
